--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3EBFB4-51BE-4297-9488-7F7A16F8EFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3EE98-4BCB-427C-8968-62AF3F8694D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,14 +160,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -181,6 +179,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,20 +214,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -554,33 +567,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934EE6E-8823-4068-817D-B17F9B33324F}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>115.27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="3">
@@ -590,8 +604,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3">
@@ -599,8 +613,8 @@
         <v>187061.00277342001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="3">
@@ -611,8 +625,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="3">
@@ -622,8 +636,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="3">
@@ -640,25 +654,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C22265-4306-401D-803C-CB5EEC240F05}">
   <dimension ref="A1:BL167"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="C24:I26"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -684,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -748,7 +763,7 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -820,8 +835,8 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="3"/>
@@ -891,8 +906,8 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3"/>
@@ -962,8 +977,8 @@
       <c r="BK6" s="3"/>
       <c r="BL6" s="3"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3">
@@ -1053,8 +1068,8 @@
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3"/>
@@ -1124,8 +1139,8 @@
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3"/>
@@ -1195,8 +1210,8 @@
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3"/>
@@ -1266,8 +1281,8 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3"/>
@@ -1337,8 +1352,8 @@
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3">
@@ -1428,8 +1443,8 @@
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3"/>
@@ -1499,8 +1514,8 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3"/>
@@ -1570,8 +1585,8 @@
       <c r="BK14" s="3"/>
       <c r="BL14" s="3"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3">
@@ -1661,8 +1676,8 @@
       <c r="BK15" s="3"/>
       <c r="BL15" s="3"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="3"/>
@@ -1732,8 +1747,8 @@
       <c r="BK16" s="3"/>
       <c r="BL16" s="3"/>
     </row>
-    <row r="17" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3"/>
@@ -1803,8 +1818,8 @@
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
     </row>
-    <row r="18" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="3">
@@ -1894,7 +1909,7 @@
       <c r="BK18" s="3"/>
       <c r="BL18" s="3"/>
     </row>
-    <row r="19" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1958,39 +1973,39 @@
       <c r="BK19" s="3"/>
       <c r="BL19" s="3"/>
     </row>
-    <row r="20" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="e">
+      <c r="C20" s="7" t="e">
         <f t="shared" ref="C20:H20" si="8">+C18/C21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="2" t="e">
+      <c r="D20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="7">
         <f t="shared" si="8"/>
         <v>0.18502475247524752</v>
       </c>
-      <c r="F20" s="2" t="e">
+      <c r="F20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="2" t="e">
+      <c r="G20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="2" t="e">
+      <c r="H20" s="7" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="7">
         <f>+I18/I21</f>
         <v>0.47592592592592592</v>
       </c>
-      <c r="J20" s="2" t="e">
+      <c r="J20" s="7" t="e">
         <f t="shared" ref="J20" si="9">+J18/J21</f>
         <v>#DIV/0!</v>
       </c>
@@ -2049,8 +2064,8 @@
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
     </row>
-    <row r="21" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3"/>
@@ -2120,7 +2135,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2184,27 +2199,27 @@
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
     </row>
-    <row r="23" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="8" t="e">
         <f t="shared" ref="G23:H23" si="10">+G4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="7" t="e">
+      <c r="H23" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <f>+I4/E4-1</f>
         <v>0.17568965517241386</v>
       </c>
-      <c r="J23" s="7" t="e">
+      <c r="J23" s="8" t="e">
         <f>+J4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -2263,39 +2278,39 @@
       <c r="BK23" s="3"/>
       <c r="BL23" s="3"/>
     </row>
-    <row r="24" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7" t="e">
-        <f t="shared" ref="C24:I24" si="11">+C7/C4</f>
+      <c r="C24" s="8" t="e">
+        <f t="shared" ref="C24:H24" si="11">+C7/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="7" t="e">
+      <c r="D24" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <f t="shared" si="11"/>
         <v>0.4736206896551724</v>
       </c>
-      <c r="F24" s="7" t="e">
+      <c r="F24" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="7" t="e">
+      <c r="G24" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="7" t="e">
+      <c r="H24" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <f>+I7/I4</f>
         <v>0.50139316615339491</v>
       </c>
-      <c r="J24" s="7" t="e">
+      <c r="J24" s="8" t="e">
         <f>+J7/J4</f>
         <v>#DIV/0!</v>
       </c>
@@ -2354,39 +2369,39 @@
       <c r="BK24" s="3"/>
       <c r="BL24" s="3"/>
     </row>
-    <row r="25" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7" t="e">
-        <f t="shared" ref="C25:I25" si="12">+C12/C4</f>
+      <c r="C25" s="8" t="e">
+        <f t="shared" ref="C25:H25" si="12">+C12/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="7" t="e">
+      <c r="D25" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <f t="shared" si="12"/>
         <v>3.8620689655172416E-2</v>
       </c>
-      <c r="F25" s="7" t="e">
+      <c r="F25" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="7" t="e">
+      <c r="G25" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="7" t="e">
+      <c r="H25" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <f>+I12/I4</f>
         <v>0.10617392579557119</v>
       </c>
-      <c r="J25" s="7" t="e">
+      <c r="J25" s="8" t="e">
         <f>+J12/J4</f>
         <v>#DIV/0!</v>
       </c>
@@ -2445,39 +2460,39 @@
       <c r="BK25" s="3"/>
       <c r="BL25" s="3"/>
     </row>
-    <row r="26" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:64" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7" t="e">
-        <f t="shared" ref="C26:I26" si="13">+C16/C15</f>
+      <c r="C26" s="8" t="e">
+        <f t="shared" ref="C26:H26" si="13">+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="7" t="e">
+      <c r="D26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <f t="shared" si="13"/>
         <v>-0.1517509727626459</v>
       </c>
-      <c r="F26" s="7" t="e">
+      <c r="F26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="7" t="e">
+      <c r="G26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="7" t="e">
+      <c r="H26" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <f>+I16/I15</f>
         <v>-3.6635006784260515E-2</v>
       </c>
-      <c r="J26" s="7" t="e">
+      <c r="J26" s="8" t="e">
         <f>+J16/J15</f>
         <v>#DIV/0!</v>
       </c>
@@ -2536,7 +2551,7 @@
       <c r="BK26" s="3"/>
       <c r="BL26" s="3"/>
     </row>
-    <row r="27" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2600,7 +2615,7 @@
       <c r="BK27" s="3"/>
       <c r="BL27" s="3"/>
     </row>
-    <row r="28" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2664,7 +2679,7 @@
       <c r="BK28" s="3"/>
       <c r="BL28" s="3"/>
     </row>
-    <row r="29" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2728,7 +2743,7 @@
       <c r="BK29" s="3"/>
       <c r="BL29" s="3"/>
     </row>
-    <row r="30" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2792,7 +2807,7 @@
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
     </row>
-    <row r="31" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2856,7 +2871,7 @@
       <c r="BK31" s="3"/>
       <c r="BL31" s="3"/>
     </row>
-    <row r="32" spans="2:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:64" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2920,7 +2935,7 @@
       <c r="BK32" s="3"/>
       <c r="BL32" s="3"/>
     </row>
-    <row r="33" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2984,7 +2999,7 @@
       <c r="BK33" s="3"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3048,7 +3063,7 @@
       <c r="BK34" s="3"/>
       <c r="BL34" s="3"/>
     </row>
-    <row r="35" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3112,7 +3127,7 @@
       <c r="BK35" s="3"/>
       <c r="BL35" s="3"/>
     </row>
-    <row r="36" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3176,7 +3191,7 @@
       <c r="BK36" s="3"/>
       <c r="BL36" s="3"/>
     </row>
-    <row r="37" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3240,7 +3255,7 @@
       <c r="BK37" s="3"/>
       <c r="BL37" s="3"/>
     </row>
-    <row r="38" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3304,7 +3319,7 @@
       <c r="BK38" s="3"/>
       <c r="BL38" s="3"/>
     </row>
-    <row r="39" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3368,7 +3383,7 @@
       <c r="BK39" s="3"/>
       <c r="BL39" s="3"/>
     </row>
-    <row r="40" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3432,7 +3447,7 @@
       <c r="BK40" s="3"/>
       <c r="BL40" s="3"/>
     </row>
-    <row r="41" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3496,7 +3511,7 @@
       <c r="BK41" s="3"/>
       <c r="BL41" s="3"/>
     </row>
-    <row r="42" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3560,7 +3575,7 @@
       <c r="BK42" s="3"/>
       <c r="BL42" s="3"/>
     </row>
-    <row r="43" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3624,7 +3639,7 @@
       <c r="BK43" s="3"/>
       <c r="BL43" s="3"/>
     </row>
-    <row r="44" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3688,7 +3703,7 @@
       <c r="BK44" s="3"/>
       <c r="BL44" s="3"/>
     </row>
-    <row r="45" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -3752,7 +3767,7 @@
       <c r="BK45" s="3"/>
       <c r="BL45" s="3"/>
     </row>
-    <row r="46" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3816,7 +3831,7 @@
       <c r="BK46" s="3"/>
       <c r="BL46" s="3"/>
     </row>
-    <row r="47" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3880,7 +3895,7 @@
       <c r="BK47" s="3"/>
       <c r="BL47" s="3"/>
     </row>
-    <row r="48" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3944,7 +3959,7 @@
       <c r="BK48" s="3"/>
       <c r="BL48" s="3"/>
     </row>
-    <row r="49" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4008,7 +4023,7 @@
       <c r="BK49" s="3"/>
       <c r="BL49" s="3"/>
     </row>
-    <row r="50" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4072,7 +4087,7 @@
       <c r="BK50" s="3"/>
       <c r="BL50" s="3"/>
     </row>
-    <row r="51" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4136,7 +4151,7 @@
       <c r="BK51" s="3"/>
       <c r="BL51" s="3"/>
     </row>
-    <row r="52" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4200,7 +4215,7 @@
       <c r="BK52" s="3"/>
       <c r="BL52" s="3"/>
     </row>
-    <row r="53" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4264,7 +4279,7 @@
       <c r="BK53" s="3"/>
       <c r="BL53" s="3"/>
     </row>
-    <row r="54" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4328,7 +4343,7 @@
       <c r="BK54" s="3"/>
       <c r="BL54" s="3"/>
     </row>
-    <row r="55" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4392,7 +4407,7 @@
       <c r="BK55" s="3"/>
       <c r="BL55" s="3"/>
     </row>
-    <row r="56" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4456,7 +4471,7 @@
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
     </row>
-    <row r="57" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4520,7 +4535,7 @@
       <c r="BK57" s="3"/>
       <c r="BL57" s="3"/>
     </row>
-    <row r="58" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4584,7 +4599,7 @@
       <c r="BK58" s="3"/>
       <c r="BL58" s="3"/>
     </row>
-    <row r="59" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4648,7 +4663,7 @@
       <c r="BK59" s="3"/>
       <c r="BL59" s="3"/>
     </row>
-    <row r="60" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4712,7 +4727,7 @@
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
     </row>
-    <row r="61" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4776,7 +4791,7 @@
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
     </row>
-    <row r="62" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4840,7 +4855,7 @@
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
     </row>
-    <row r="63" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -4904,7 +4919,7 @@
       <c r="BK63" s="3"/>
       <c r="BL63" s="3"/>
     </row>
-    <row r="64" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4968,7 +4983,7 @@
       <c r="BK64" s="3"/>
       <c r="BL64" s="3"/>
     </row>
-    <row r="65" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5032,7 +5047,7 @@
       <c r="BK65" s="3"/>
       <c r="BL65" s="3"/>
     </row>
-    <row r="66" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5096,7 +5111,7 @@
       <c r="BK66" s="3"/>
       <c r="BL66" s="3"/>
     </row>
-    <row r="67" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -5160,7 +5175,7 @@
       <c r="BK67" s="3"/>
       <c r="BL67" s="3"/>
     </row>
-    <row r="68" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5224,7 +5239,7 @@
       <c r="BK68" s="3"/>
       <c r="BL68" s="3"/>
     </row>
-    <row r="69" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5288,7 +5303,7 @@
       <c r="BK69" s="3"/>
       <c r="BL69" s="3"/>
     </row>
-    <row r="70" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5352,7 +5367,7 @@
       <c r="BK70" s="3"/>
       <c r="BL70" s="3"/>
     </row>
-    <row r="71" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5416,7 +5431,7 @@
       <c r="BK71" s="3"/>
       <c r="BL71" s="3"/>
     </row>
-    <row r="72" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5480,7 +5495,7 @@
       <c r="BK72" s="3"/>
       <c r="BL72" s="3"/>
     </row>
-    <row r="73" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5544,7 +5559,7 @@
       <c r="BK73" s="3"/>
       <c r="BL73" s="3"/>
     </row>
-    <row r="74" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5608,7 +5623,7 @@
       <c r="BK74" s="3"/>
       <c r="BL74" s="3"/>
     </row>
-    <row r="75" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5672,7 +5687,7 @@
       <c r="BK75" s="3"/>
       <c r="BL75" s="3"/>
     </row>
-    <row r="76" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5736,7 +5751,7 @@
       <c r="BK76" s="3"/>
       <c r="BL76" s="3"/>
     </row>
-    <row r="77" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5800,7 +5815,7 @@
       <c r="BK77" s="3"/>
       <c r="BL77" s="3"/>
     </row>
-    <row r="78" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5864,7 +5879,7 @@
       <c r="BK78" s="3"/>
       <c r="BL78" s="3"/>
     </row>
-    <row r="79" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5928,7 +5943,7 @@
       <c r="BK79" s="3"/>
       <c r="BL79" s="3"/>
     </row>
-    <row r="80" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5992,7 +6007,7 @@
       <c r="BK80" s="3"/>
       <c r="BL80" s="3"/>
     </row>
-    <row r="81" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6056,7 +6071,7 @@
       <c r="BK81" s="3"/>
       <c r="BL81" s="3"/>
     </row>
-    <row r="82" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6120,7 +6135,7 @@
       <c r="BK82" s="3"/>
       <c r="BL82" s="3"/>
     </row>
-    <row r="83" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -6184,7 +6199,7 @@
       <c r="BK83" s="3"/>
       <c r="BL83" s="3"/>
     </row>
-    <row r="84" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -6248,7 +6263,7 @@
       <c r="BK84" s="3"/>
       <c r="BL84" s="3"/>
     </row>
-    <row r="85" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -6312,7 +6327,7 @@
       <c r="BK85" s="3"/>
       <c r="BL85" s="3"/>
     </row>
-    <row r="86" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -6376,7 +6391,7 @@
       <c r="BK86" s="3"/>
       <c r="BL86" s="3"/>
     </row>
-    <row r="87" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -6440,7 +6455,7 @@
       <c r="BK87" s="3"/>
       <c r="BL87" s="3"/>
     </row>
-    <row r="88" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -6504,7 +6519,7 @@
       <c r="BK88" s="3"/>
       <c r="BL88" s="3"/>
     </row>
-    <row r="89" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -6568,7 +6583,7 @@
       <c r="BK89" s="3"/>
       <c r="BL89" s="3"/>
     </row>
-    <row r="90" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -6632,7 +6647,7 @@
       <c r="BK90" s="3"/>
       <c r="BL90" s="3"/>
     </row>
-    <row r="91" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6696,7 +6711,7 @@
       <c r="BK91" s="3"/>
       <c r="BL91" s="3"/>
     </row>
-    <row r="92" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6760,7 +6775,7 @@
       <c r="BK92" s="3"/>
       <c r="BL92" s="3"/>
     </row>
-    <row r="93" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6824,7 +6839,7 @@
       <c r="BK93" s="3"/>
       <c r="BL93" s="3"/>
     </row>
-    <row r="94" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6888,7 +6903,7 @@
       <c r="BK94" s="3"/>
       <c r="BL94" s="3"/>
     </row>
-    <row r="95" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6952,7 +6967,7 @@
       <c r="BK95" s="3"/>
       <c r="BL95" s="3"/>
     </row>
-    <row r="96" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -7016,7 +7031,7 @@
       <c r="BK96" s="3"/>
       <c r="BL96" s="3"/>
     </row>
-    <row r="97" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -7080,7 +7095,7 @@
       <c r="BK97" s="3"/>
       <c r="BL97" s="3"/>
     </row>
-    <row r="98" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -7144,7 +7159,7 @@
       <c r="BK98" s="3"/>
       <c r="BL98" s="3"/>
     </row>
-    <row r="99" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -7208,7 +7223,7 @@
       <c r="BK99" s="3"/>
       <c r="BL99" s="3"/>
     </row>
-    <row r="100" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -7272,7 +7287,7 @@
       <c r="BK100" s="3"/>
       <c r="BL100" s="3"/>
     </row>
-    <row r="101" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7336,7 +7351,7 @@
       <c r="BK101" s="3"/>
       <c r="BL101" s="3"/>
     </row>
-    <row r="102" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -7400,7 +7415,7 @@
       <c r="BK102" s="3"/>
       <c r="BL102" s="3"/>
     </row>
-    <row r="103" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -7464,7 +7479,7 @@
       <c r="BK103" s="3"/>
       <c r="BL103" s="3"/>
     </row>
-    <row r="104" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -7528,7 +7543,7 @@
       <c r="BK104" s="3"/>
       <c r="BL104" s="3"/>
     </row>
-    <row r="105" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -7592,7 +7607,7 @@
       <c r="BK105" s="3"/>
       <c r="BL105" s="3"/>
     </row>
-    <row r="106" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -7656,7 +7671,7 @@
       <c r="BK106" s="3"/>
       <c r="BL106" s="3"/>
     </row>
-    <row r="107" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -7720,7 +7735,7 @@
       <c r="BK107" s="3"/>
       <c r="BL107" s="3"/>
     </row>
-    <row r="108" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -7784,7 +7799,7 @@
       <c r="BK108" s="3"/>
       <c r="BL108" s="3"/>
     </row>
-    <row r="109" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -7848,7 +7863,7 @@
       <c r="BK109" s="3"/>
       <c r="BL109" s="3"/>
     </row>
-    <row r="110" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -7912,7 +7927,7 @@
       <c r="BK110" s="3"/>
       <c r="BL110" s="3"/>
     </row>
-    <row r="111" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -7976,7 +7991,7 @@
       <c r="BK111" s="3"/>
       <c r="BL111" s="3"/>
     </row>
-    <row r="112" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -8040,7 +8055,7 @@
       <c r="BK112" s="3"/>
       <c r="BL112" s="3"/>
     </row>
-    <row r="113" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -8104,7 +8119,7 @@
       <c r="BK113" s="3"/>
       <c r="BL113" s="3"/>
     </row>
-    <row r="114" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -8168,7 +8183,7 @@
       <c r="BK114" s="3"/>
       <c r="BL114" s="3"/>
     </row>
-    <row r="115" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -8232,7 +8247,7 @@
       <c r="BK115" s="3"/>
       <c r="BL115" s="3"/>
     </row>
-    <row r="116" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -8296,7 +8311,7 @@
       <c r="BK116" s="3"/>
       <c r="BL116" s="3"/>
     </row>
-    <row r="117" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -8360,7 +8375,7 @@
       <c r="BK117" s="3"/>
       <c r="BL117" s="3"/>
     </row>
-    <row r="118" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8424,7 +8439,7 @@
       <c r="BK118" s="3"/>
       <c r="BL118" s="3"/>
     </row>
-    <row r="119" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -8488,7 +8503,7 @@
       <c r="BK119" s="3"/>
       <c r="BL119" s="3"/>
     </row>
-    <row r="120" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -8552,7 +8567,7 @@
       <c r="BK120" s="3"/>
       <c r="BL120" s="3"/>
     </row>
-    <row r="121" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -8616,7 +8631,7 @@
       <c r="BK121" s="3"/>
       <c r="BL121" s="3"/>
     </row>
-    <row r="122" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -8680,7 +8695,7 @@
       <c r="BK122" s="3"/>
       <c r="BL122" s="3"/>
     </row>
-    <row r="123" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -8744,7 +8759,7 @@
       <c r="BK123" s="3"/>
       <c r="BL123" s="3"/>
     </row>
-    <row r="124" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -8808,7 +8823,7 @@
       <c r="BK124" s="3"/>
       <c r="BL124" s="3"/>
     </row>
-    <row r="125" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -8872,7 +8887,7 @@
       <c r="BK125" s="3"/>
       <c r="BL125" s="3"/>
     </row>
-    <row r="126" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -8936,7 +8951,7 @@
       <c r="BK126" s="3"/>
       <c r="BL126" s="3"/>
     </row>
-    <row r="127" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -9000,7 +9015,7 @@
       <c r="BK127" s="3"/>
       <c r="BL127" s="3"/>
     </row>
-    <row r="128" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -9064,7 +9079,7 @@
       <c r="BK128" s="3"/>
       <c r="BL128" s="3"/>
     </row>
-    <row r="129" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -9128,7 +9143,7 @@
       <c r="BK129" s="3"/>
       <c r="BL129" s="3"/>
     </row>
-    <row r="130" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -9192,7 +9207,7 @@
       <c r="BK130" s="3"/>
       <c r="BL130" s="3"/>
     </row>
-    <row r="131" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -9256,7 +9271,7 @@
       <c r="BK131" s="3"/>
       <c r="BL131" s="3"/>
     </row>
-    <row r="132" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -9320,7 +9335,7 @@
       <c r="BK132" s="3"/>
       <c r="BL132" s="3"/>
     </row>
-    <row r="133" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -9384,7 +9399,7 @@
       <c r="BK133" s="3"/>
       <c r="BL133" s="3"/>
     </row>
-    <row r="134" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -9448,7 +9463,7 @@
       <c r="BK134" s="3"/>
       <c r="BL134" s="3"/>
     </row>
-    <row r="135" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -9512,7 +9527,7 @@
       <c r="BK135" s="3"/>
       <c r="BL135" s="3"/>
     </row>
-    <row r="136" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -9576,7 +9591,7 @@
       <c r="BK136" s="3"/>
       <c r="BL136" s="3"/>
     </row>
-    <row r="137" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -9640,7 +9655,7 @@
       <c r="BK137" s="3"/>
       <c r="BL137" s="3"/>
     </row>
-    <row r="138" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -9704,7 +9719,7 @@
       <c r="BK138" s="3"/>
       <c r="BL138" s="3"/>
     </row>
-    <row r="139" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -9768,7 +9783,7 @@
       <c r="BK139" s="3"/>
       <c r="BL139" s="3"/>
     </row>
-    <row r="140" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -9832,7 +9847,7 @@
       <c r="BK140" s="3"/>
       <c r="BL140" s="3"/>
     </row>
-    <row r="141" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -9896,7 +9911,7 @@
       <c r="BK141" s="3"/>
       <c r="BL141" s="3"/>
     </row>
-    <row r="142" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -9960,7 +9975,7 @@
       <c r="BK142" s="3"/>
       <c r="BL142" s="3"/>
     </row>
-    <row r="143" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -10024,7 +10039,7 @@
       <c r="BK143" s="3"/>
       <c r="BL143" s="3"/>
     </row>
-    <row r="144" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -10088,7 +10103,7 @@
       <c r="BK144" s="3"/>
       <c r="BL144" s="3"/>
     </row>
-    <row r="145" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -10152,7 +10167,7 @@
       <c r="BK145" s="3"/>
       <c r="BL145" s="3"/>
     </row>
-    <row r="146" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -10216,7 +10231,7 @@
       <c r="BK146" s="3"/>
       <c r="BL146" s="3"/>
     </row>
-    <row r="147" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -10280,7 +10295,7 @@
       <c r="BK147" s="3"/>
       <c r="BL147" s="3"/>
     </row>
-    <row r="148" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -10344,7 +10359,7 @@
       <c r="BK148" s="3"/>
       <c r="BL148" s="3"/>
     </row>
-    <row r="149" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -10408,7 +10423,7 @@
       <c r="BK149" s="3"/>
       <c r="BL149" s="3"/>
     </row>
-    <row r="150" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -10472,7 +10487,7 @@
       <c r="BK150" s="3"/>
       <c r="BL150" s="3"/>
     </row>
-    <row r="151" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -10536,7 +10551,7 @@
       <c r="BK151" s="3"/>
       <c r="BL151" s="3"/>
     </row>
-    <row r="152" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -10600,7 +10615,7 @@
       <c r="BK152" s="3"/>
       <c r="BL152" s="3"/>
     </row>
-    <row r="153" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -10664,7 +10679,7 @@
       <c r="BK153" s="3"/>
       <c r="BL153" s="3"/>
     </row>
-    <row r="154" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -10728,7 +10743,7 @@
       <c r="BK154" s="3"/>
       <c r="BL154" s="3"/>
     </row>
-    <row r="155" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -10792,7 +10807,7 @@
       <c r="BK155" s="3"/>
       <c r="BL155" s="3"/>
     </row>
-    <row r="156" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -10856,7 +10871,7 @@
       <c r="BK156" s="3"/>
       <c r="BL156" s="3"/>
     </row>
-    <row r="157" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -10920,7 +10935,7 @@
       <c r="BK157" s="3"/>
       <c r="BL157" s="3"/>
     </row>
-    <row r="158" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -10984,7 +10999,7 @@
       <c r="BK158" s="3"/>
       <c r="BL158" s="3"/>
     </row>
-    <row r="159" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -11048,7 +11063,7 @@
       <c r="BK159" s="3"/>
       <c r="BL159" s="3"/>
     </row>
-    <row r="160" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -11112,7 +11127,7 @@
       <c r="BK160" s="3"/>
       <c r="BL160" s="3"/>
     </row>
-    <row r="161" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -11176,7 +11191,7 @@
       <c r="BK161" s="3"/>
       <c r="BL161" s="3"/>
     </row>
-    <row r="162" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11240,7 +11255,7 @@
       <c r="BK162" s="3"/>
       <c r="BL162" s="3"/>
     </row>
-    <row r="163" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -11304,7 +11319,7 @@
       <c r="BK163" s="3"/>
       <c r="BL163" s="3"/>
     </row>
-    <row r="164" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -11368,7 +11383,7 @@
       <c r="BK164" s="3"/>
       <c r="BL164" s="3"/>
     </row>
-    <row r="165" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11432,7 +11447,7 @@
       <c r="BK165" s="3"/>
       <c r="BL165" s="3"/>
     </row>
-    <row r="166" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11496,7 +11511,7 @@
       <c r="BK166" s="3"/>
       <c r="BL166" s="3"/>
     </row>
-    <row r="167" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:64" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3EE98-4BCB-427C-8968-62AF3F8694D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA74EB-1BF1-409C-98AC-46DD1B777E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934EE6E-8823-4068-817D-B17F9B33324F}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -654,11 +654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C22265-4306-401D-803C-CB5EEC240F05}">
   <dimension ref="A1:BL167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA74EB-1BF1-409C-98AC-46DD1B777E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61386E18-06AD-4793-889E-98BFFC919BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>numbers in mio USD</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Tax Expense</t>
   </si>
   <si>
-    <t>Income in investee</t>
-  </si>
-  <si>
     <t>Net Income</t>
   </si>
   <si>
@@ -146,18 +143,54 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Investees &amp; other</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Embedded</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,21 +247,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -568,7 +608,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>115.27</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -598,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>1622.8073460000001</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
+        <v>1622.843689</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -610,7 +650,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>187061.00277342001</v>
+        <v>254137.32169740001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -621,8 +661,8 @@
         <f>3897+647</f>
         <v>4544</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
+      <c r="I5" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -632,8 +672,8 @@
       <c r="H6" s="3">
         <v>1720</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>8</v>
+      <c r="I6" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -642,7 +682,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>184237.00277342001</v>
+        <v>251313.32169740001</v>
       </c>
     </row>
   </sheetData>
@@ -652,13 +692,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C22265-4306-401D-803C-CB5EEC240F05}">
-  <dimension ref="A1:BL167"/>
+  <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,30 +738,49 @@
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11">
+        <v>2834</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
+        <v>3240</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -764,36 +823,35 @@
       <c r="BL3" s="3"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>5800</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>6819</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11">
+        <v>1492</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11">
+        <v>2499</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
@@ -836,35 +894,35 @@
       <c r="BL4" s="3"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>2843</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>3167</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>648</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>1122</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -907,35 +965,35 @@
       <c r="BL5" s="3"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>210</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>233</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11">
+        <v>861</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <v>824</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
@@ -978,55 +1036,40 @@
       <c r="BL6" s="3"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" ref="C7:H7" si="0">+C4-SUM(C5:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>2747</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <f>+I4-SUM(I5:I6)</f>
-        <v>3419</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" ref="J7" si="1">+J4-SUM(J5:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>5800</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>5835</v>
+      </c>
+      <c r="I7" s="12">
+        <v>6819</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12">
+        <v>7685</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
@@ -1070,34 +1113,38 @@
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>1507</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>1636</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>2843</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>2740</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3167</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11">
+        <v>4366</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
@@ -1141,34 +1188,38 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>576</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>721</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>210</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>231</v>
+      </c>
+      <c r="I9" s="11">
+        <v>233</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11">
+        <v>260</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
@@ -1212,34 +1263,66 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>450</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>352</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" ref="C10:H10" si="0">+C7-SUM(C8:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>2747</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>2864</v>
+      </c>
+      <c r="I10" s="11">
+        <f>+I7-SUM(I8:I9)</f>
+        <v>3419</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10:N10" si="1">+J7-SUM(J8:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="1"/>
+        <v>3059</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
@@ -1283,34 +1366,38 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>14</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
+        <v>1507</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>1583</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1636</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
+        <v>1894</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -1354,54 +1441,38 @@
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12:H12" si="2">+C7-SUM(C8:C10)+C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>224</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <f>+I7-SUM(I8:I10)+I11</f>
-        <v>724</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" ref="J12" si="3">+J7-SUM(J8:J10)+J11</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
+        <v>576</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>640</v>
+      </c>
+      <c r="I12" s="11">
+        <v>721</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
+        <v>991</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -1445,34 +1516,38 @@
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>23</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <v>450</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>372</v>
+      </c>
+      <c r="I13" s="11">
+        <v>352</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>308</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -1516,34 +1591,38 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>59</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>36</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>14</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -1587,54 +1666,66 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:H15" si="4">+C12-C13+C14</f>
+        <v>24</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" ref="C15:H15" si="2">+C10-SUM(C11:C13)+C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="4"/>
+      <c r="D15" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" si="4"/>
-        <v>257</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="4"/>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="4"/>
+      <c r="G15" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H15" s="3">
-        <f t="shared" si="4"/>
+      <c r="H15" s="11">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="I15" s="11">
+        <f>+I10-SUM(I11:I13)+I14</f>
+        <v>724</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15:N15" si="3">+J10-SUM(J11:J13)+J14</f>
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <f>+I12-I13+I14</f>
-        <v>737</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" ref="J15" si="5">+J12-J13+J14</f>
+      <c r="K15" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="L15" s="11">
+        <f t="shared" si="3"/>
+        <v>-134</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -1678,34 +1769,38 @@
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>-39</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>-27</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>25</v>
+      </c>
+      <c r="I16" s="11">
+        <v>23</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>38</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -1749,34 +1844,38 @@
     </row>
     <row r="17" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>7</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <v>59</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <v>55</v>
+      </c>
+      <c r="I17" s="11">
+        <v>36</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>98</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -1820,54 +1919,66 @@
     </row>
     <row r="18" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" ref="C18:H18" si="6">+C15-C16+C17</f>
+        <v>27</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:H18" si="4">+C15-C16+C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="6"/>
+      <c r="D18" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" si="6"/>
+      <c r="E18" s="11">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="6"/>
+      <c r="I18" s="11">
+        <f>+I15-I16+I17</f>
+        <v>737</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" ref="J18:N18" si="5">+J15-J16+J17</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="6"/>
+      <c r="K18" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" si="6"/>
+      <c r="L18" s="11">
+        <f t="shared" si="5"/>
+        <v>-74</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I18" s="3">
-        <f>+I15-I16+I17</f>
-        <v>771</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" ref="J18" si="7">+J15-J16+J17</f>
+      <c r="N18" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -1910,28 +2021,39 @@
       <c r="BL18" s="3"/>
     </row>
     <row r="19" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11">
+        <v>-39</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>41</v>
+      </c>
+      <c r="I19" s="11">
+        <v>-27</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>-834</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -1974,55 +2096,40 @@
       <c r="BL19" s="3"/>
     </row>
     <row r="20" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="e">
-        <f t="shared" ref="C20:H20" si="8">+C18/C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="8"/>
-        <v>0.18502475247524752</v>
-      </c>
-      <c r="F20" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="7">
-        <f>+I18/I21</f>
-        <v>0.47592592592592592</v>
-      </c>
-      <c r="J20" s="7" t="e">
-        <f t="shared" ref="J20" si="9">+J18/J21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>7</v>
+      </c>
+      <c r="I20" s="11">
+        <v>7</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <f>8+104</f>
+        <v>112</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -2066,34 +2173,66 @@
     </row>
     <row r="21" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>1616</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>1620</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" ref="C21:H21" si="6">+C18-C19+C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="I21" s="11">
+        <f>+I18-I19+I20</f>
+        <v>771</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" ref="J21:N21" si="7">+J18-J19+J20</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="7"/>
+        <v>872</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -2136,28 +2275,28 @@
       <c r="BL21" s="3"/>
     </row>
     <row r="22" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -2201,32 +2340,56 @@
     </row>
     <row r="23" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="8" t="e">
-        <f t="shared" ref="G23:H23" si="10">+G4/C4-1</f>
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="e">
+        <f t="shared" ref="C23:H23" si="8">+C21/C24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="10"/>
+      <c r="D23" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="8">
-        <f>+I4/E4-1</f>
-        <v>0.17568965517241386</v>
-      </c>
-      <c r="J23" s="8" t="e">
-        <f>+J4/F4-1</f>
+      <c r="E23" s="7">
+        <f t="shared" si="8"/>
+        <v>0.18502475247524752</v>
+      </c>
+      <c r="F23" s="7" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="G23" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="8"/>
+        <v>0.16378244746600742</v>
+      </c>
+      <c r="I23" s="7">
+        <f>+I21/I24</f>
+        <v>0.47592592592592592</v>
+      </c>
+      <c r="J23" s="7" t="e">
+        <f t="shared" ref="J23:N23" si="9">+J21/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="9"/>
+        <v>0.5372766481823783</v>
+      </c>
+      <c r="M23" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2280,42 +2443,26 @@
     </row>
     <row r="24" spans="2:64" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="8" t="e">
-        <f t="shared" ref="C24:H24" si="11">+C7/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="11"/>
-        <v>0.4736206896551724</v>
-      </c>
-      <c r="F24" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="8">
-        <f>+I7/I4</f>
-        <v>0.50139316615339491</v>
-      </c>
-      <c r="J24" s="8" t="e">
-        <f>+J7/J4</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>1616</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>1618</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1620</v>
+      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>1623</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2370,41 +2517,14 @@
       <c r="BL24" s="3"/>
     </row>
     <row r="25" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="8" t="e">
-        <f t="shared" ref="C25:H25" si="12">+C12/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="12"/>
-        <v>3.8620689655172416E-2</v>
-      </c>
-      <c r="F25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8">
-        <f>+I12/I4</f>
-        <v>0.10617392579557119</v>
-      </c>
-      <c r="J25" s="8" t="e">
-        <f>+J12/J4</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2461,45 +2581,45 @@
       <c r="BL25" s="3"/>
     </row>
     <row r="26" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8" t="e">
-        <f t="shared" ref="C26:H26" si="13">+C16/C15</f>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="13" t="e">
+        <f t="shared" ref="G26:H26" si="10">+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="H26" s="13" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="8">
-        <f t="shared" si="13"/>
-        <v>-0.1517509727626459</v>
-      </c>
-      <c r="F26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="I26" s="13">
+        <f>+I7/E7-1</f>
+        <v>0.17568965517241386</v>
+      </c>
+      <c r="J26" s="13" t="e">
+        <f t="shared" ref="J26:N26" si="11">+J7/F7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="K26" s="13" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="L26" s="13">
+        <f t="shared" si="11"/>
+        <v>0.31705227077977716</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="N26" s="13" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="8">
-        <f>+I16/I15</f>
-        <v>-3.6635006784260515E-2</v>
-      </c>
-      <c r="J26" s="8" t="e">
-        <f>+J16/J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -2552,18 +2672,57 @@
       <c r="BL26" s="3"/>
     </row>
     <row r="27" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8" t="e">
+        <f t="shared" ref="C27:H27" si="12">+C10/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="12"/>
+        <v>0.4736206896551724</v>
+      </c>
+      <c r="F27" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="12"/>
+        <v>0.49083119108826051</v>
+      </c>
+      <c r="I27" s="8">
+        <f>+I10/I7</f>
+        <v>0.50139316615339491</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f t="shared" ref="J27:N27" si="13">+J10/J7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="13"/>
+        <v>0.39804814573845154</v>
+      </c>
+      <c r="M27" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2616,18 +2775,57 @@
       <c r="BL27" s="3"/>
     </row>
     <row r="28" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="e">
+        <f t="shared" ref="C28:H28" si="14">+C15/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="14"/>
+        <v>3.8620689655172416E-2</v>
+      </c>
+      <c r="F28" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="14"/>
+        <v>4.6101113967437872E-2</v>
+      </c>
+      <c r="I28" s="8">
+        <f>+I15/I7</f>
+        <v>0.10617392579557119</v>
+      </c>
+      <c r="J28" s="8" t="e">
+        <f t="shared" ref="J28:N28" si="15">+J15/J7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="15"/>
+        <v>-1.7436564736499675E-2</v>
+      </c>
+      <c r="M28" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -2680,18 +2878,57 @@
       <c r="BL28" s="3"/>
     </row>
     <row r="29" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="e">
+        <f t="shared" ref="C29:H29" si="16">+C19/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="16"/>
+        <v>-0.1517509727626459</v>
+      </c>
+      <c r="F29" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="16"/>
+        <v>0.13712374581939799</v>
+      </c>
+      <c r="I29" s="8">
+        <f>+I19/I18</f>
+        <v>-3.6635006784260515E-2</v>
+      </c>
+      <c r="J29" s="8" t="e">
+        <f t="shared" ref="J29:N29" si="17">+J19/J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="17"/>
+        <v>11.27027027027027</v>
+      </c>
+      <c r="M29" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -11575,6 +11812,198 @@
       <c r="BK167" s="3"/>
       <c r="BL167" s="3"/>
     </row>
+    <row r="168" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+      <c r="AF168" s="3"/>
+      <c r="AG168" s="3"/>
+      <c r="AH168" s="3"/>
+      <c r="AI168" s="3"/>
+      <c r="AJ168" s="3"/>
+      <c r="AK168" s="3"/>
+      <c r="AL168" s="3"/>
+      <c r="AM168" s="3"/>
+      <c r="AN168" s="3"/>
+      <c r="AO168" s="3"/>
+      <c r="AP168" s="3"/>
+      <c r="AQ168" s="3"/>
+      <c r="AR168" s="3"/>
+      <c r="AS168" s="3"/>
+      <c r="AT168" s="3"/>
+      <c r="AU168" s="3"/>
+      <c r="AV168" s="3"/>
+      <c r="AW168" s="3"/>
+      <c r="AX168" s="3"/>
+      <c r="AY168" s="3"/>
+      <c r="AZ168" s="3"/>
+      <c r="BA168" s="3"/>
+      <c r="BB168" s="3"/>
+      <c r="BC168" s="3"/>
+      <c r="BD168" s="3"/>
+      <c r="BE168" s="3"/>
+      <c r="BF168" s="3"/>
+      <c r="BG168" s="3"/>
+      <c r="BH168" s="3"/>
+      <c r="BI168" s="3"/>
+      <c r="BJ168" s="3"/>
+      <c r="BK168" s="3"/>
+      <c r="BL168" s="3"/>
+    </row>
+    <row r="169" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+      <c r="AF169" s="3"/>
+      <c r="AG169" s="3"/>
+      <c r="AH169" s="3"/>
+      <c r="AI169" s="3"/>
+      <c r="AJ169" s="3"/>
+      <c r="AK169" s="3"/>
+      <c r="AL169" s="3"/>
+      <c r="AM169" s="3"/>
+      <c r="AN169" s="3"/>
+      <c r="AO169" s="3"/>
+      <c r="AP169" s="3"/>
+      <c r="AQ169" s="3"/>
+      <c r="AR169" s="3"/>
+      <c r="AS169" s="3"/>
+      <c r="AT169" s="3"/>
+      <c r="AU169" s="3"/>
+      <c r="AV169" s="3"/>
+      <c r="AW169" s="3"/>
+      <c r="AX169" s="3"/>
+      <c r="AY169" s="3"/>
+      <c r="AZ169" s="3"/>
+      <c r="BA169" s="3"/>
+      <c r="BB169" s="3"/>
+      <c r="BC169" s="3"/>
+      <c r="BD169" s="3"/>
+      <c r="BE169" s="3"/>
+      <c r="BF169" s="3"/>
+      <c r="BG169" s="3"/>
+      <c r="BH169" s="3"/>
+      <c r="BI169" s="3"/>
+      <c r="BJ169" s="3"/>
+      <c r="BK169" s="3"/>
+      <c r="BL169" s="3"/>
+    </row>
+    <row r="170" spans="3:64" x14ac:dyDescent="0.2">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+      <c r="AF170" s="3"/>
+      <c r="AG170" s="3"/>
+      <c r="AH170" s="3"/>
+      <c r="AI170" s="3"/>
+      <c r="AJ170" s="3"/>
+      <c r="AK170" s="3"/>
+      <c r="AL170" s="3"/>
+      <c r="AM170" s="3"/>
+      <c r="AN170" s="3"/>
+      <c r="AO170" s="3"/>
+      <c r="AP170" s="3"/>
+      <c r="AQ170" s="3"/>
+      <c r="AR170" s="3"/>
+      <c r="AS170" s="3"/>
+      <c r="AT170" s="3"/>
+      <c r="AU170" s="3"/>
+      <c r="AV170" s="3"/>
+      <c r="AW170" s="3"/>
+      <c r="AX170" s="3"/>
+      <c r="AY170" s="3"/>
+      <c r="AZ170" s="3"/>
+      <c r="BA170" s="3"/>
+      <c r="BB170" s="3"/>
+      <c r="BC170" s="3"/>
+      <c r="BD170" s="3"/>
+      <c r="BE170" s="3"/>
+      <c r="BF170" s="3"/>
+      <c r="BG170" s="3"/>
+      <c r="BH170" s="3"/>
+      <c r="BI170" s="3"/>
+      <c r="BJ170" s="3"/>
+      <c r="BK170" s="3"/>
+      <c r="BL170" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{66608389-28A7-4662-ADFC-61E13E644A0B}"/>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61386E18-06AD-4793-889E-98BFFC919BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3B5A6-4396-484D-95E3-478D3B7B35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>numbers in mio USD</t>
   </si>
@@ -170,6 +170,24 @@
   <si>
     <t>Embedded</t>
   </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partnership with OpenAi: </t>
+  </si>
+  <si>
+    <t>https://ir.amd.com/news-events/press-releases/detail/1260/amd-and-openai-announce-strategic-partnership-to-deploy-6-gigawatts-of-amd-gpus</t>
+  </si>
+  <si>
+    <t>OpenAI to deploy 6 gigawatts of AMD based GPUs starting H2 26</t>
+  </si>
+  <si>
+    <t>Warrant for OpenAi for 160 million shares</t>
+  </si>
 </sst>
 </file>
 
@@ -178,13 +196,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -227,6 +251,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,28 +279,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -605,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A934EE6E-8823-4068-817D-B17F9B33324F}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>156.6</v>
+        <v>211.32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -645,12 +679,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>254137.32169740001</v>
+        <v>342939.32835948002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -682,7 +719,32 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>251313.32169740001</v>
+        <v>340115.32835948002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -695,10 +757,10 @@
   <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,17 +817,29 @@
       <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="11">
+        <v>1295</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1321</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1598</v>
+      </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="G3" s="11">
+        <v>2337</v>
+      </c>
       <c r="H3" s="11">
         <v>2834</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11">
+        <v>3549</v>
+      </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="11">
+        <v>3674</v>
+      </c>
       <c r="L3" s="11">
         <v>3240</v>
       </c>
@@ -826,17 +900,29 @@
       <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="11">
+        <v>739</v>
+      </c>
+      <c r="D4" s="11">
+        <v>998</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1453</v>
+      </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="11">
+        <v>1368</v>
+      </c>
       <c r="H4" s="11">
         <v>1492</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11">
+        <v>1881</v>
+      </c>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="11">
+        <v>2294</v>
+      </c>
       <c r="L4" s="11">
         <v>2499</v>
       </c>
@@ -897,17 +983,29 @@
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="11">
+        <v>1757</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1581</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1506</v>
+      </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>922</v>
+      </c>
       <c r="H5" s="11">
         <v>648</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11">
+        <v>462</v>
+      </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="11">
+        <v>647</v>
+      </c>
       <c r="L5" s="11">
         <v>1122</v>
       </c>
@@ -968,17 +1066,29 @@
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="11">
+        <v>1562</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1459</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1243</v>
+      </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="11">
+        <v>846</v>
+      </c>
       <c r="H6" s="11">
         <v>861</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11">
+        <v>927</v>
+      </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="11">
+        <v>823</v>
+      </c>
       <c r="L6" s="11">
         <v>824</v>
       </c>
@@ -1040,13 +1150,19 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="12">
+        <v>5353</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5359</v>
+      </c>
       <c r="E7" s="12">
         <v>5800</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12">
+        <v>5473</v>
+      </c>
       <c r="H7" s="12">
         <v>5835</v>
       </c>
@@ -1054,7 +1170,9 @@
         <v>6819</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="12">
+        <v>7438</v>
+      </c>
       <c r="L7" s="12">
         <v>7685</v>
       </c>
@@ -1115,13 +1233,19 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="11">
+        <v>2689</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2704</v>
+      </c>
       <c r="E8" s="11">
         <v>2843</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11">
+        <v>2683</v>
+      </c>
       <c r="H8" s="11">
         <v>2740</v>
       </c>
@@ -1129,7 +1253,9 @@
         <v>3167</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="11">
+        <v>3451</v>
+      </c>
       <c r="L8" s="11">
         <v>4366</v>
       </c>
@@ -1190,13 +1316,19 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="11">
+        <v>305</v>
+      </c>
+      <c r="D9" s="11">
+        <v>212</v>
+      </c>
       <c r="E9" s="11">
         <v>210</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11">
+        <v>230</v>
+      </c>
       <c r="H9" s="11">
         <v>231</v>
       </c>
@@ -1204,7 +1336,9 @@
         <v>233</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="11">
+        <v>251</v>
+      </c>
       <c r="L9" s="11">
         <v>260</v>
       </c>
@@ -1267,11 +1401,11 @@
       </c>
       <c r="C10" s="11">
         <f t="shared" ref="C10:H10" si="0">+C7-SUM(C8:C9)</f>
-        <v>0</v>
+        <v>2359</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2443</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
@@ -1283,7 +1417,7 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2560</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="0"/>
@@ -1299,7 +1433,7 @@
       </c>
       <c r="K10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3736</v>
       </c>
       <c r="L10" s="11">
         <f t="shared" si="1"/>
@@ -1368,13 +1502,19 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11">
+        <v>1411</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1443</v>
+      </c>
       <c r="E11" s="11">
         <v>1507</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>1525</v>
+      </c>
       <c r="H11" s="11">
         <v>1583</v>
       </c>
@@ -1382,7 +1522,9 @@
         <v>1636</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="11">
+        <v>1728</v>
+      </c>
       <c r="L11" s="11">
         <v>1894</v>
       </c>
@@ -1443,13 +1585,19 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11">
+        <v>585</v>
+      </c>
+      <c r="D12" s="11">
+        <v>547</v>
+      </c>
       <c r="E12" s="11">
         <v>576</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11">
+        <v>607</v>
+      </c>
       <c r="H12" s="11">
         <v>640</v>
       </c>
@@ -1457,7 +1605,9 @@
         <v>721</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11">
+        <v>886</v>
+      </c>
       <c r="L12" s="11">
         <v>991</v>
       </c>
@@ -1518,13 +1668,19 @@
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="11">
+        <v>518</v>
+      </c>
+      <c r="D13" s="11">
+        <v>481</v>
+      </c>
       <c r="E13" s="11">
         <v>450</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>392</v>
+      </c>
       <c r="H13" s="11">
         <v>372</v>
       </c>
@@ -1532,7 +1688,9 @@
         <v>352</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11">
+        <v>316</v>
+      </c>
       <c r="L13" s="11">
         <v>308</v>
       </c>
@@ -1593,13 +1751,19 @@
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <v>8</v>
+      </c>
       <c r="E14" s="11">
         <v>10</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
       <c r="H14" s="11">
         <v>0</v>
       </c>
@@ -1607,7 +1771,9 @@
         <v>14</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
       <c r="L14" s="11">
         <v>0</v>
       </c>
@@ -1670,11 +1836,11 @@
       </c>
       <c r="C15" s="11">
         <f t="shared" ref="C15:H15" si="2">+C10-SUM(C11:C13)+C14</f>
-        <v>0</v>
+        <v>-145</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="2"/>
@@ -1686,7 +1852,7 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
@@ -1702,7 +1868,7 @@
       </c>
       <c r="K15" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="L15" s="11">
         <f t="shared" si="3"/>
@@ -1771,13 +1937,19 @@
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="11">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11">
+        <v>28</v>
+      </c>
       <c r="E16" s="11">
         <v>26</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>25</v>
+      </c>
       <c r="H16" s="11">
         <v>25</v>
       </c>
@@ -1785,7 +1957,9 @@
         <v>23</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11">
+        <v>20</v>
+      </c>
       <c r="L16" s="11">
         <v>38</v>
       </c>
@@ -1846,13 +2020,19 @@
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="11">
+        <v>43</v>
+      </c>
+      <c r="D17" s="11">
+        <v>46</v>
+      </c>
       <c r="E17" s="11">
         <v>59</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>53</v>
+      </c>
       <c r="H17" s="11">
         <v>55</v>
       </c>
@@ -1860,7 +2040,9 @@
         <v>36</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="11">
+        <v>39</v>
+      </c>
       <c r="L17" s="11">
         <v>98</v>
       </c>
@@ -1923,11 +2105,11 @@
       </c>
       <c r="C18" s="11">
         <f t="shared" ref="C18:H18" si="4">+C15-C16+C17</f>
-        <v>0</v>
+        <v>-127</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="4"/>
@@ -1939,7 +2121,7 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="4"/>
@@ -1955,7 +2137,7 @@
       </c>
       <c r="K18" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="L18" s="11">
         <f t="shared" si="5"/>
@@ -2024,13 +2206,19 @@
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="11">
+        <v>13</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-23</v>
+      </c>
       <c r="E19" s="11">
         <v>-39</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>-52</v>
+      </c>
       <c r="H19" s="11">
         <v>41</v>
       </c>
@@ -2038,7 +2226,9 @@
         <v>-27</v>
       </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <v>123</v>
+      </c>
       <c r="L19" s="11">
         <v>-834</v>
       </c>
@@ -2099,13 +2289,19 @@
       <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>6</v>
+      </c>
       <c r="E20" s="11">
         <v>3</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="11">
+        <v>7</v>
+      </c>
       <c r="H20" s="11">
         <v>7</v>
       </c>
@@ -2113,7 +2309,9 @@
         <v>7</v>
       </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11">
+        <v>7</v>
+      </c>
       <c r="L20" s="11">
         <f>8+104</f>
         <v>112</v>
@@ -2177,11 +2375,11 @@
       </c>
       <c r="C21" s="11">
         <f t="shared" ref="C21:H21" si="6">+C18-C19+C20</f>
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="6"/>
@@ -2193,7 +2391,7 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="6"/>
@@ -2209,7 +2407,7 @@
       </c>
       <c r="K21" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="L21" s="11">
         <f t="shared" si="7"/>
@@ -2342,13 +2540,13 @@
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="7" t="e">
+      <c r="C23" s="7">
         <f t="shared" ref="C23:H23" si="8">+C21/C24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="7" t="e">
+        <v>-8.6281812538795785E-2</v>
+      </c>
+      <c r="D23" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>1.6749379652605458E-2</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="8"/>
@@ -2358,9 +2556,9 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="7" t="e">
+      <c r="G23" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>7.6066790352504632E-2</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="8"/>
@@ -2374,9 +2572,9 @@
         <f t="shared" ref="J23:N23" si="9">+J21/J24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="7" t="e">
+      <c r="K23" s="7">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.43765432098765433</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" si="9"/>
@@ -2445,13 +2643,19 @@
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3">
+        <v>1611</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1612</v>
+      </c>
       <c r="E24" s="3">
         <v>1616</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>1617</v>
+      </c>
       <c r="H24" s="3">
         <v>1618</v>
       </c>
@@ -2459,7 +2663,9 @@
         <v>1620</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>1620</v>
+      </c>
       <c r="L24" s="3">
         <v>1623</v>
       </c>
@@ -2588,13 +2794,13 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="13" t="e">
+      <c r="G26" s="13">
         <f t="shared" ref="G26:H26" si="10">+G7/C7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="13" t="e">
+        <v>2.2417336073230043E-2</v>
+      </c>
+      <c r="H26" s="13">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>8.882254151894009E-2</v>
       </c>
       <c r="I26" s="13">
         <f>+I7/E7-1</f>
@@ -2604,9 +2810,9 @@
         <f t="shared" ref="J26:N26" si="11">+J7/F7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="13" t="e">
+      <c r="K26" s="13">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.35903526402338759</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="11"/>
@@ -2675,13 +2881,13 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="8" t="e">
+      <c r="C27" s="8">
         <f t="shared" ref="C27:H27" si="12">+C10/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="8" t="e">
+        <v>0.44068746497291239</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.4558686322075014</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="12"/>
@@ -2691,9 +2897,9 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="8" t="e">
+      <c r="G27" s="8">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.46775077653937513</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="12"/>
@@ -2707,9 +2913,9 @@
         <f t="shared" ref="J27:N27" si="13">+J10/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="8" t="e">
+      <c r="K27" s="8">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.50228556063457919</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="13"/>
@@ -2778,13 +2984,13 @@
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="8" t="e">
+      <c r="C28" s="8">
         <f t="shared" ref="C28:H28" si="14">+C15/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="8" t="e">
+        <v>-2.7087614421819541E-2</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-3.7320395596193321E-3</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="14"/>
@@ -2794,9 +3000,9 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="8" t="e">
+      <c r="G28" s="8">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>6.5777452950849628E-3</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="14"/>
@@ -2810,9 +3016,9 @@
         <f t="shared" ref="J28:N28" si="15">+J15/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="8" t="e">
+      <c r="K28" s="8">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.10836246302769562</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="15"/>
@@ -2881,13 +3087,13 @@
       <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="8" t="e">
+      <c r="C29" s="8">
         <f t="shared" ref="C29:H29" si="16">+C19/C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="8" t="e">
+        <v>-0.10236220472440945</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>11.5</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" si="16"/>
@@ -2897,9 +3103,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="8" t="e">
+      <c r="G29" s="8">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>-0.8125</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="16"/>
@@ -2913,9 +3119,9 @@
         <f t="shared" ref="J29:N29" si="17">+J19/J18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="8" t="e">
+      <c r="K29" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.14909090909090908</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="17"/>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE3B5A6-4396-484D-95E3-478D3B7B35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103F8454-0E76-4A31-8C58-D2D3D21887D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{88DDBE30-5603-410A-A895-5ECD92172F1B}"/>
   </bookViews>
@@ -196,13 +196,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,30 +285,33 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -642,7 +651,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>211.32</v>
+        <v>226.55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -672,10 +681,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>1622.843689</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>36</v>
+        <v>1628.0415399999999</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -687,7 +696,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>342939.32835948002</v>
+        <v>368832.810887</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -695,11 +704,11 @@
         <v>4</v>
       </c>
       <c r="H5" s="3">
-        <f>3897+647</f>
-        <v>4544</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>36</v>
+        <f>4808+2435</f>
+        <v>7243</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -707,10 +716,11 @@
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <v>1720</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>36</v>
+        <f>2347+873</f>
+        <v>3220</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -719,7 +729,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>340115.32835948002</v>
+        <v>364809.810887</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -757,7 +767,7 @@
   <dimension ref="A1:BL170"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
@@ -843,7 +853,9 @@
       <c r="L3" s="11">
         <v>3240</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="11">
+        <v>4341</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -926,7 +938,9 @@
       <c r="L4" s="11">
         <v>2499</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="11">
+        <v>2750</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -1009,7 +1023,9 @@
       <c r="L5" s="11">
         <v>1122</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="11">
+        <v>1298</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1092,7 +1108,9 @@
       <c r="L6" s="11">
         <v>824</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="11">
+        <v>857</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1176,7 +1194,9 @@
       <c r="L7" s="12">
         <v>7685</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="12">
+        <v>9246</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1259,7 +1279,9 @@
       <c r="L8" s="11">
         <v>4366</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="11">
+        <v>4206</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -1342,7 +1364,9 @@
       <c r="L9" s="11">
         <v>260</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="11">
+        <v>260</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1441,7 +1465,7 @@
       </c>
       <c r="M10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4780</v>
       </c>
       <c r="N10" s="11">
         <f t="shared" si="1"/>
@@ -1528,7 +1552,9 @@
       <c r="L11" s="11">
         <v>1894</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="11">
+        <v>2139</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -1611,7 +1637,9 @@
       <c r="L12" s="11">
         <v>991</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="11">
+        <v>1069</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -1694,7 +1722,9 @@
       <c r="L13" s="11">
         <v>308</v>
       </c>
-      <c r="M13" s="11"/>
+      <c r="M13" s="11">
+        <v>302</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1777,7 +1807,9 @@
       <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -1876,7 +1908,7 @@
       </c>
       <c r="M15" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="3"/>
@@ -1963,7 +1995,9 @@
       <c r="L16" s="11">
         <v>38</v>
       </c>
-      <c r="M16" s="11"/>
+      <c r="M16" s="11">
+        <v>37</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -2046,7 +2080,9 @@
       <c r="L17" s="11">
         <v>98</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="11">
+        <v>82</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -2145,7 +2181,7 @@
       </c>
       <c r="M18" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="5"/>
@@ -2232,7 +2268,9 @@
       <c r="L19" s="11">
         <v>-834</v>
       </c>
-      <c r="M19" s="11"/>
+      <c r="M19" s="11">
+        <v>153</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -2316,7 +2354,10 @@
         <f>8+104</f>
         <v>112</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="11">
+        <f>10+71</f>
+        <v>81</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -2415,7 +2456,7 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="7"/>
@@ -2580,9 +2621,9 @@
         <f t="shared" si="9"/>
         <v>0.5372766481823783</v>
       </c>
-      <c r="M23" s="7" t="e">
+      <c r="M23" s="7">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.76445264452644524</v>
       </c>
       <c r="N23" s="7" t="e">
         <f t="shared" si="9"/>
@@ -2669,7 +2710,9 @@
       <c r="L24" s="3">
         <v>1623</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>1626</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2820,7 +2863,7 @@
       </c>
       <c r="M26" s="13">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0.35591728992520899</v>
       </c>
       <c r="N26" s="13" t="e">
         <f t="shared" si="11"/>
@@ -2921,9 +2964,9 @@
         <f t="shared" si="13"/>
         <v>0.39804814573845154</v>
       </c>
-      <c r="M27" s="8" t="e">
+      <c r="M27" s="8">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.51698031581224313</v>
       </c>
       <c r="N27" s="8" t="e">
         <f t="shared" si="13"/>
@@ -3024,9 +3067,9 @@
         <f t="shared" si="15"/>
         <v>-1.7436564736499675E-2</v>
       </c>
-      <c r="M28" s="8" t="e">
+      <c r="M28" s="8">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.13735669478693488</v>
       </c>
       <c r="N28" s="8" t="e">
         <f t="shared" si="15"/>
@@ -3127,9 +3170,9 @@
         <f t="shared" si="17"/>
         <v>11.27027027027027</v>
       </c>
-      <c r="M29" s="8" t="e">
+      <c r="M29" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.11634980988593156</v>
       </c>
       <c r="N29" s="8" t="e">
         <f t="shared" si="17"/>
